--- a/chuongtrinh/HOCONLINE/Content/file/41_10117.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41_10117.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>Họ tên</t>
   </si>
@@ -92,10 +92,94 @@
     <t>vu@gmail.com</t>
   </si>
   <si>
+    <t>00:25:57 26/06/2021</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>lê Thị tường  VI</t>
   </si>
   <si>
     <t>vi@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Quang Trường</t>
+  </si>
+  <si>
+    <t>quangtruong@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoàng Huy  Tuấn</t>
+  </si>
+  <si>
+    <t>tuanhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>Võ thị Diệu  Thương</t>
+  </si>
+  <si>
+    <t>Thuong@gmail.com</t>
+  </si>
+  <si>
+    <t>Võ Tấn  Đào</t>
+  </si>
+  <si>
+    <t>dao@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn công  Hậu</t>
+  </si>
+  <si>
+    <t>hau@gmail.com</t>
+  </si>
+  <si>
+    <t>Trí linh</t>
+  </si>
+  <si>
+    <t>linh@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Đình  Thảo</t>
+  </si>
+  <si>
+    <t>thao@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Hùy hải  Yến</t>
+  </si>
+  <si>
+    <t>yen@gmail.com</t>
+  </si>
+  <si>
+    <t>Cao Đặng  Nhân</t>
+  </si>
+  <si>
+    <t>nhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn  Nhật</t>
+  </si>
+  <si>
+    <t>nhat@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoàng đình thiên đông</t>
+  </si>
+  <si>
+    <t>dong@gmail.com</t>
+  </si>
+  <si>
+    <t>Lý thế  Hạo</t>
+  </si>
+  <si>
+    <t>hao@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>hieu@gmail.com</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -639,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -756,24 +840,24 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -785,6 +869,266 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -833,42 +1177,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
